--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -7,7 +7,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Graphique1" sheetId="2" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,18 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>Poids</t>
   </si>
+  <si>
+    <t>IMC</t>
+  </si>
+  <si>
+    <t>Taille</t>
+  </si>
+  <si>
+    <t>Evolution semaine</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -60,9 +73,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -78,6 +92,934 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Evolution du poids de S255</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Poids</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$A$2:$A$9</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>43175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43179</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43181</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>98.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>96.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EFCB-4306-824C-E37F652FA46F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="8229760"/>
+        <c:axId val="8230176"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="8229760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8230176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="8230176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="90"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="8229760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9294556" cy="6052984"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,31 +1285,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>1.72</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43175</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>98.3</v>
+      </c>
+      <c r="C2" s="2">
+        <f>B2/($F$1*$F$1)</f>
+        <v>33.227420227149814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43176</v>
+      </c>
+      <c r="B3" s="2">
+        <v>98.1</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C7" si="0">B3/($F$1*$F$1)</f>
+        <v>33.159816116819904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43177</v>
+      </c>
+      <c r="B4" s="2">
+        <v>97.3</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>32.889399675500272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43178</v>
+      </c>
+      <c r="B5" s="2">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>33.126014061654949</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43179</v>
+      </c>
+      <c r="B6" s="2">
+        <v>97.3</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>32.889399675500272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43180</v>
+      </c>
+      <c r="B7" s="2">
+        <v>96.8</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>32.720389399675504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43181</v>
+      </c>
+      <c r="B8" s="2">
+        <v>97.4</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" ref="C8:C9" si="1">B8/($F$1*$F$1)</f>
+        <v>32.923201730665227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43182</v>
+      </c>
+      <c r="B9" s="2">
+        <v>97.3</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="1"/>
+        <v>32.889399675500272</v>
+      </c>
+      <c r="D9" s="2">
+        <f>B2-B9</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -196,12 +196,26 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$2:$A$9</c:f>
+              <c:f>Feuil1!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43175</c:v>
                 </c:pt>
@@ -225,16 +239,43 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>43182</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43183</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43185</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43186</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43187</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43188</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43189</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43191</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$2:$B$9</c:f>
+              <c:f>Feuil1!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>98.3</c:v>
                 </c:pt>
@@ -258,6 +299,33 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>97.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>97.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>97.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>98.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>97.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>96.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>96.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -335,7 +403,7 @@
         <c:axId val="8230176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="90"/>
+          <c:min val="95"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -999,7 +1067,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9294556" cy="6052984"/>
+    <xdr:ext cx="9302238" cy="6083710"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -1285,10 +1353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,7 +1466,7 @@
         <v>97.4</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" ref="C8:C9" si="1">B8/($F$1*$F$1)</f>
+        <f t="shared" ref="C8:C18" si="1">B8/($F$1*$F$1)</f>
         <v>32.923201730665227</v>
       </c>
     </row>
@@ -1414,8 +1482,152 @@
         <v>32.889399675500272</v>
       </c>
       <c r="D9" s="2">
-        <f>B2-B9</f>
+        <f t="shared" ref="D9:D18" si="2">B2-B9</f>
         <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43183</v>
+      </c>
+      <c r="B10" s="2">
+        <v>97.5</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="1"/>
+        <v>32.957003785830182</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="2"/>
+        <v>0.59999999999999432</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43184</v>
+      </c>
+      <c r="B11" s="2">
+        <v>97.1</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="1"/>
+        <v>32.821795565170362</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.20000000000000284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43185</v>
+      </c>
+      <c r="B12" s="2">
+        <v>97.6</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="1"/>
+        <v>32.990805840995137</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.40000000000000568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43186</v>
+      </c>
+      <c r="B13" s="2">
+        <v>97.6</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="1"/>
+        <v>32.990805840995137</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.29999999999999716</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43187</v>
+      </c>
+      <c r="B14" s="2">
+        <v>97.8</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="1"/>
+        <v>33.058409951325046</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43188</v>
+      </c>
+      <c r="B15" s="2">
+        <v>98.1</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="1"/>
+        <v>33.159816116819904</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.69999999999998863</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43189</v>
+      </c>
+      <c r="B16" s="2">
+        <v>97.7</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="1"/>
+        <v>33.024607896160092</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.40000000000000568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B17" s="2">
+        <v>96.6</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="1"/>
+        <v>32.652785289345594</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="2"/>
+        <v>0.90000000000000568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43191</v>
+      </c>
+      <c r="B18" s="2">
+        <v>96.9</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="1"/>
+        <v>32.754191454840459</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="2"/>
+        <v>0.19999999999998863</v>
       </c>
     </row>
   </sheetData>

--- a/Suivi.xlsx
+++ b/Suivi.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Graphique1" sheetId="2" r:id="rId1"/>
+    <sheet name="Graphique1" sheetId="3" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -34,7 +34,13 @@
     <t>Taille</t>
   </si>
   <si>
-    <t>Evolution semaine</t>
+    <t>Nourriture</t>
+  </si>
+  <si>
+    <t>Exercice</t>
+  </si>
+  <si>
+    <t>Total calories</t>
   </si>
 </sst>
 </file>
@@ -73,10 +79,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,9 +135,32 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="fr-FR" sz="2000">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>S255</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Evolution du poids de S255</a:t>
+              <a:t/>
             </a:r>
+            <a:br>
+              <a:rPr lang="fr-FR"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1050"/>
+              <a:t>Evolution du poids</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="fr-FR" sz="1050"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="1050"/>
+              <a:t>Suivi de nourriture</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -167,6 +197,698 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nourriture</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$A$2:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>43175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43179</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43181</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43182</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43183</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43185</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43186</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43187</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43188</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43189</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43192</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43193</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43194</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43195</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43196</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43197</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43198</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43199</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43201</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43202</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43203</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43204</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43205</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43206</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43207</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43208</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43209</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43210</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43211</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43212</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43213</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43214</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43215</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43216</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43217</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43218</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43219</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43222</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43223</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43224</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43225</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$C$2:$C$53</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2080</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1407</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1391</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1298</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1870.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2221</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1772</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1576</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1592</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1737</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1192</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1390</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2247</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1712</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1885</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1591</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1733</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1492</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1622</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0F82-4B84-9F65-41A9F9113CE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Exercice</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$A$2:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>43175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43179</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43181</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43182</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43183</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43185</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43186</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43187</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43188</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43189</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43192</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43193</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43194</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43195</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43196</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43197</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43198</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43199</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43201</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43202</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43203</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43204</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43205</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43206</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43207</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43208</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43209</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43210</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43211</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43212</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43213</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43214</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43215</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43216</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43217</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43218</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43219</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43222</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43223</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43224</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43225</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$D$2:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.0">
+                  <c:v>-590</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-707</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-534</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-648</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-930</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-593</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-902</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1592</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-652</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0F82-4B84-9F65-41A9F9113CE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1017815552"/>
+        <c:axId val="1017815136"/>
+      </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -212,10 +934,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Feuil1!$A$2:$A$18</c:f>
+              <c:f>Feuil1!$A$2:$A$53</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>43175</c:v>
                 </c:pt>
@@ -266,16 +988,121 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43192</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43193</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43194</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43195</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43196</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43197</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43198</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43199</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43201</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43202</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43203</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43204</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43205</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43206</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43207</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43208</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43209</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43210</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43211</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43212</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43213</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43214</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43215</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43216</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43217</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43218</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43219</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43222</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43223</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43224</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43225</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Feuil1!$B$2:$B$18</c:f>
+              <c:f>Feuil1!$B$2:$B$53</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="52"/>
                 <c:pt idx="0">
                   <c:v>98.3</c:v>
                 </c:pt>
@@ -326,6 +1153,111 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>96.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>97.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>97.3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>97.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>97.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>97.8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>97.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>97.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>97.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>97.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>95.9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>95.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>96.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>95.9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>95.9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>96.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>96.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>96.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>96.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>97.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>96.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>96.9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>96.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>96.3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>96.1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>95.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>95.3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>95.1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>95.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -333,7 +1265,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EFCB-4306-824C-E37F652FA46F}"/>
+              <c16:uniqueId val="{00000000-0F82-4B84-9F65-41A9F9113CE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -345,12 +1277,400 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="8229760"/>
-        <c:axId val="8230176"/>
+        <c:axId val="798415488"/>
+        <c:axId val="804731920"/>
       </c:lineChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total calories</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="0" cap="rnd" cmpd="dbl">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$A$2:$A$53</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>43175</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43179</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43181</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43182</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43183</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43185</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43186</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43187</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43188</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43189</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43190</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43191</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43192</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43193</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43194</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43195</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43196</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43197</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43198</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43199</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43201</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43202</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43203</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43204</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43205</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43206</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43207</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43208</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43209</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43210</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43211</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43212</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43213</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43214</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43215</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43216</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43217</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43218</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43219</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43220</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43221</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43222</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43223</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43224</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43225</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43226</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$E$2:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="52"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1407</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>817</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1391</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1336.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1573</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1772</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1592</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1737</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>488</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2247</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1712</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1885</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1081</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1492</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>643</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0F82-4B84-9F65-41A9F9113CE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1017815552"/>
+        <c:axId val="1017815136"/>
+      </c:scatterChart>
       <c:dateAx>
-        <c:axId val="8229760"/>
+        <c:axId val="798415488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -393,17 +1713,18 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8230176"/>
+        <c:crossAx val="804731920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="8230176"/>
+        <c:axId val="804731920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="95"/>
+          <c:max val="99"/>
+          <c:min val="81"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -421,6 +1742,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Poids</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> en kg</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -452,10 +1834,149 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8229760"/>
+        <c:crossAx val="798415488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="1017815136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3500"/>
+          <c:min val="-1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Nourriture</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-FR" baseline="0"/>
+                  <a:t> et exercices en kcalories</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1017815552"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="500"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="1017815552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1017815136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="1"/>
+      </c:dateAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1056,7 +2577,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="180" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1067,7 +2588,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9302238" cy="6083710"/>
+    <xdr:ext cx="9284368" cy="6045868"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1"/>
@@ -1353,281 +2874,1157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D39" sqref="D39:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" style="2"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="17.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1">
+      <c r="H1">
         <v>1.72</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43175</v>
       </c>
       <c r="B2" s="2">
         <v>98.3</v>
       </c>
-      <c r="C2" s="2">
-        <f>B2/($F$1*$F$1)</f>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f>IF(C2="","-",C2+D2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
+        <f t="shared" ref="F2:F42" si="0">B2/($H$1*$H$1)</f>
         <v>33.227420227149814</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43176</v>
       </c>
       <c r="B3" s="2">
         <v>98.1</v>
       </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:C7" si="0">B3/($F$1*$F$1)</f>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E30" si="1">IF(C3="","-",C3+D3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="0"/>
         <v>33.159816116819904</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43177</v>
       </c>
       <c r="B4" s="2">
         <v>97.3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
         <f t="shared" si="0"/>
         <v>32.889399675500272</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43178</v>
       </c>
       <c r="B5" s="2">
         <v>98</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
         <f t="shared" si="0"/>
         <v>33.126014061654949</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43179</v>
       </c>
       <c r="B6" s="2">
         <v>97.3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
         <f t="shared" si="0"/>
         <v>32.889399675500272</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43180</v>
       </c>
       <c r="B7" s="2">
         <v>96.8</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
         <f t="shared" si="0"/>
         <v>32.720389399675504</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43181</v>
       </c>
       <c r="B8" s="2">
         <v>97.4</v>
       </c>
-      <c r="C8" s="2">
-        <f t="shared" ref="C8:C18" si="1">B8/($F$1*$F$1)</f>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
         <v>32.923201730665227</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43182</v>
       </c>
       <c r="B9" s="2">
         <v>97.3</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
         <v>32.889399675500272</v>
       </c>
-      <c r="D9" s="2">
-        <f t="shared" ref="D9:D18" si="2">B2-B9</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43183</v>
       </c>
       <c r="B10" s="2">
         <v>97.5</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
         <v>32.957003785830182</v>
       </c>
-      <c r="D10" s="2">
-        <f t="shared" si="2"/>
-        <v>0.59999999999999432</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43184</v>
       </c>
       <c r="B11" s="2">
         <v>97.1</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
         <v>32.821795565170362</v>
       </c>
-      <c r="D11" s="2">
-        <f t="shared" si="2"/>
-        <v>0.20000000000000284</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43185</v>
       </c>
       <c r="B12" s="2">
         <v>97.6</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
         <v>32.990805840995137</v>
       </c>
-      <c r="D12" s="2">
-        <f t="shared" si="2"/>
-        <v>0.40000000000000568</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43186</v>
       </c>
       <c r="B13" s="2">
         <v>97.6</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="3">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
         <v>32.990805840995137</v>
       </c>
-      <c r="D13" s="2">
-        <f t="shared" si="2"/>
-        <v>-0.29999999999999716</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43187</v>
       </c>
       <c r="B14" s="2">
         <v>97.8</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
         <v>33.058409951325046</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43188</v>
       </c>
       <c r="B15" s="2">
         <v>98.1</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
         <v>33.159816116819904</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" si="2"/>
-        <v>-0.69999999999998863</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43189</v>
       </c>
       <c r="B16" s="2">
         <v>97.7</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
         <v>33.024607896160092</v>
       </c>
-      <c r="D16" s="2">
-        <f t="shared" si="2"/>
-        <v>-0.40000000000000568</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43190</v>
       </c>
       <c r="B17" s="2">
         <v>96.6</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="3">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
         <v>32.652785289345594</v>
       </c>
-      <c r="D17" s="2">
-        <f t="shared" si="2"/>
-        <v>0.90000000000000568</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43191</v>
       </c>
       <c r="B18" s="2">
         <v>96.9</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
         <v>32.754191454840459</v>
       </c>
-      <c r="D18" s="2">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43192</v>
+      </c>
+      <c r="B19" s="2">
+        <v>97.1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>32.821795565170362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43193</v>
+      </c>
+      <c r="B20" s="2">
+        <v>97.3</v>
+      </c>
+      <c r="C20" s="3">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>32.889399675500272</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43194</v>
+      </c>
+      <c r="B21" s="2">
+        <v>97.5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>32.957003785830182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43195</v>
+      </c>
+      <c r="B22" s="2">
+        <v>97.6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>32.990805840995137</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43196</v>
+      </c>
+      <c r="B23" s="2">
+        <v>98</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>33.126014061654949</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43197</v>
+      </c>
+      <c r="B24" s="2">
+        <v>97.8</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>33.058409951325046</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43198</v>
+      </c>
+      <c r="B25" s="2">
+        <v>97.6</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>32.990805840995137</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43199</v>
+      </c>
+      <c r="B26" s="2">
+        <v>97.8</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2080</v>
+      </c>
+      <c r="D26" s="2">
+        <v>-590</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>1490</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>33.058409951325046</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43200</v>
+      </c>
+      <c r="B27" s="2">
+        <v>97.7</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1407</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>1407</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="0"/>
+        <v>33.024607896160092</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43201</v>
+      </c>
+      <c r="B28" s="2">
+        <v>97.2</v>
+      </c>
+      <c r="C28" s="3">
+        <v>817</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>817</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="0"/>
+        <v>32.855597620335324</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43202</v>
+      </c>
+      <c r="B29" s="2">
+        <v>96.2</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1391</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>1391</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="0"/>
+        <v>32.517577068685782</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43203</v>
+      </c>
+      <c r="B30" s="2">
+        <v>95.9</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1298</v>
+      </c>
+      <c r="D30">
+        <v>-707</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>591</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="0"/>
+        <v>32.416170903190917</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43204</v>
+      </c>
+      <c r="B31" s="2">
+        <v>95.3</v>
+      </c>
+      <c r="C31" s="3">
+        <f>1700*1.1</f>
+        <v>1870.0000000000002</v>
+      </c>
+      <c r="D31">
+        <v>-534</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:E42" si="2">IF(C31="","-",C31+D31)</f>
+        <v>1336.0000000000002</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="0"/>
+        <v>32.213358572201194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43205</v>
+      </c>
+      <c r="B32" s="2">
+        <v>96</v>
+      </c>
+      <c r="C32" s="3">
+        <v>2221</v>
+      </c>
+      <c r="D32">
+        <v>-648</v>
+      </c>
+      <c r="E32">
         <f t="shared" si="2"/>
-        <v>0.19999999999998863</v>
+        <v>1573</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="0"/>
+        <v>32.449972958355872</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43206</v>
+      </c>
+      <c r="B33" s="2">
+        <v>96.3</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1772</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>1772</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="0"/>
+        <v>32.55137912385073</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43207</v>
+      </c>
+      <c r="B34" s="2">
+        <v>95.9</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1576</v>
+      </c>
+      <c r="D34">
+        <v>-930</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>646</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="0"/>
+        <v>32.416170903190917</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43208</v>
+      </c>
+      <c r="B35" s="2">
+        <v>96</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1592</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>1592</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="0"/>
+        <v>32.449972958355872</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43209</v>
+      </c>
+      <c r="B36" s="2">
+        <v>95.9</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1737</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>1737</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="0"/>
+        <v>32.416170903190917</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43210</v>
+      </c>
+      <c r="B37" s="2">
+        <v>96.5</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1192</v>
+      </c>
+      <c r="D37">
+        <v>-593</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>599</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="0"/>
+        <v>32.618983234180639</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43211</v>
+      </c>
+      <c r="B38" s="2">
+        <v>96.2</v>
+      </c>
+      <c r="C38" s="3">
+        <f>1301+89</f>
+        <v>1390</v>
+      </c>
+      <c r="D38">
+        <f>-339-563</f>
+        <v>-902</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>488</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="0"/>
+        <v>32.517577068685782</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43212</v>
+      </c>
+      <c r="B39" s="2">
+        <v>96.4</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>1700</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="0"/>
+        <v>32.585181179015692</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43213</v>
+      </c>
+      <c r="B40" s="2">
+        <v>96.6</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>1700</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="0"/>
+        <v>32.652785289345594</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43214</v>
+      </c>
+      <c r="B41" s="2">
+        <v>96.8</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>1700</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="0"/>
+        <v>32.720389399675504</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43215</v>
+      </c>
+      <c r="B42" s="2">
+        <v>97</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>1700</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="0"/>
+        <v>32.787993510005414</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43216</v>
+      </c>
+      <c r="B43" s="2">
+        <v>97.1</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1937</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43:E53" si="3">IF(C43="","-",C43+D43)</f>
+        <v>1937</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" ref="F43:F53" si="4">B43/($H$1*$H$1)</f>
+        <v>32.821795565170362</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43217</v>
+      </c>
+      <c r="B44" s="2">
+        <v>96.7</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1051</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>1051</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="4"/>
+        <v>32.686587344510549</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43218</v>
+      </c>
+      <c r="B45" s="2">
+        <v>96.9</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2247</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>2247</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="4"/>
+        <v>32.754191454840459</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43219</v>
+      </c>
+      <c r="B46" s="2">
+        <v>97</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1712</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>1712</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="4"/>
+        <v>32.787993510005414</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43220</v>
+      </c>
+      <c r="B47" s="2">
+        <v>96.5</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1885</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="3"/>
+        <v>1885</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="4"/>
+        <v>32.618983234180639</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B48" s="2">
+        <v>96.3</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1591</v>
+      </c>
+      <c r="D48">
+        <v>-1592</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="4"/>
+        <v>32.55137912385073</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43222</v>
+      </c>
+      <c r="B49" s="2">
+        <v>96.1</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1733</v>
+      </c>
+      <c r="D49">
+        <v>-652</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="3"/>
+        <v>1081</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="4"/>
+        <v>32.483775013520827</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43223</v>
+      </c>
+      <c r="B50" s="2">
+        <v>95.8</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="3"/>
+        <v>1900</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="4"/>
+        <v>32.382368848025962</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43224</v>
+      </c>
+      <c r="B51" s="2">
+        <v>95.3</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1492</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="3"/>
+        <v>1492</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="4"/>
+        <v>32.213358572201194</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43225</v>
+      </c>
+      <c r="B52" s="2">
+        <v>95.1</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>1700</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="4"/>
+        <v>32.145754461871284</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43226</v>
+      </c>
+      <c r="B53" s="2">
+        <v>95.8</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1622</v>
+      </c>
+      <c r="D53">
+        <v>-979</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>643</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="4"/>
+        <v>32.382368848025962</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43227</v>
+      </c>
+      <c r="B54" s="2">
+        <v>95.2</v>
       </c>
     </row>
   </sheetData>
